--- a/r4-core-main/all-profiles.xlsx
+++ b/r4-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T20:00:03+00:00</t>
+    <t>2023-12-21T16:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/all-profiles.xlsx
+++ b/r4-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:56:02+00:00</t>
+    <t>2024-02-10T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/all-profiles.xlsx
+++ b/r4-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:16:02+00:00</t>
+    <t>2024-02-10T19:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/all-profiles.xlsx
+++ b/r4-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:21:32+00:00</t>
+    <t>2024-02-16T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/all-profiles.xlsx
+++ b/r4-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T08:42:46+00:00</t>
+    <t>2024-07-17T07:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/all-profiles.xlsx
+++ b/r4-core-main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19570" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19570" uniqueCount="1555">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:47:16+00:00</t>
+    <t>2024-10-16T10:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -373,7 +373,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -2640,9 +2640,6 @@
   </si>
   <si>
     <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>Patient.address.text</t>
@@ -4592,7 +4589,7 @@
   </si>
   <si>
     <t>Expansion is performed to produce a collection of codes that are ready to use for data entry or validation. Value set expansions are always considered to be stateless - they are a record of the set of codes in the value set at a point in time under a given set of conditions, and are not subject to ongoing maintenance.
-Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](parameters.html) resource.</t>
+Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](http://hl7.org/fhir/R4/parameters.html) resource.</t>
   </si>
   <si>
     <t>ValueSet.expansion.id</t>
@@ -6252,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="168">
@@ -6260,7 +6257,7 @@
         <v>4</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="169">
@@ -6276,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="171">
@@ -6284,7 +6281,7 @@
         <v>10</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="172">
@@ -6346,7 +6343,7 @@
         <v>24</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="180">
@@ -6382,7 +6379,7 @@
         <v>32</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="185">
@@ -6390,7 +6387,7 @@
         <v>34</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="186">
@@ -6422,7 +6419,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="190">
@@ -6430,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="191">
@@ -6446,7 +6443,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="193">
@@ -6454,7 +6451,7 @@
         <v>10</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="194">
@@ -6516,7 +6513,7 @@
         <v>24</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="202">
@@ -6552,7 +6549,7 @@
         <v>32</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="207">
@@ -6560,7 +6557,7 @@
         <v>34</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="208">
@@ -6592,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="212">
@@ -6600,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="213">
@@ -6616,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="215">
@@ -6624,7 +6621,7 @@
         <v>10</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="216">
@@ -6686,7 +6683,7 @@
         <v>24</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="224">
@@ -6722,7 +6719,7 @@
         <v>32</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="229">
@@ -6730,7 +6727,7 @@
         <v>34</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="230">
@@ -34946,7 +34943,7 @@
         <v>115</v>
       </c>
       <c r="O269" t="s" s="2">
-        <v>848</v>
+        <v>116</v>
       </c>
       <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
@@ -35016,10 +35013,10 @@
         <v>520</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -35123,10 +35120,10 @@
         <v>520</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -35226,10 +35223,10 @@
         <v>520</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -35329,10 +35326,10 @@
         <v>520</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -35430,10 +35427,10 @@
         <v>520</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D274" t="s" s="2">
         <v>137</v>
@@ -35535,10 +35532,10 @@
         <v>520</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D275" t="s" s="2">
         <v>142</v>
@@ -35640,10 +35637,10 @@
         <v>520</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>147</v>
@@ -35745,10 +35742,10 @@
         <v>520</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D277" t="s" s="2">
         <v>151</v>
@@ -35850,10 +35847,10 @@
         <v>520</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -35953,10 +35950,10 @@
         <v>520</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -36056,10 +36053,10 @@
         <v>520</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -36161,10 +36158,10 @@
         <v>520</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -36264,10 +36261,10 @@
         <v>520</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -36367,10 +36364,10 @@
         <v>520</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -36472,10 +36469,10 @@
         <v>520</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -36577,10 +36574,10 @@
         <v>520</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -36606,14 +36603,14 @@
         <v>240</v>
       </c>
       <c r="M285" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="N285" t="s" s="2">
         <v>865</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>866</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q285" t="s" s="2">
         <v>23</v>
@@ -36641,11 +36638,11 @@
         <v>241</v>
       </c>
       <c r="Z285" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AA285" t="s" s="2">
         <v>868</v>
       </c>
-      <c r="AA285" t="s" s="2">
-        <v>869</v>
-      </c>
       <c r="AB285" t="s" s="2">
         <v>23</v>
       </c>
@@ -36662,7 +36659,7 @@
         <v>23</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>76</v>
@@ -36682,10 +36679,10 @@
         <v>520</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -36785,10 +36782,10 @@
         <v>520</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -36890,10 +36887,10 @@
         <v>520</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -36997,10 +36994,10 @@
         <v>520</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -37100,10 +37097,10 @@
         <v>520</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -37205,10 +37202,10 @@
         <v>520</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -37312,10 +37309,10 @@
         <v>520</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -37417,10 +37414,10 @@
         <v>520</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -37522,10 +37519,10 @@
         <v>520</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -37627,10 +37624,10 @@
         <v>520</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -37734,10 +37731,10 @@
         <v>520</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -37841,10 +37838,10 @@
         <v>520</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -37867,19 +37864,19 @@
         <v>23</v>
       </c>
       <c r="L297" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M297" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="M297" t="s" s="2">
+      <c r="N297" t="s" s="2">
         <v>883</v>
       </c>
-      <c r="N297" t="s" s="2">
+      <c r="O297" t="s" s="2">
         <v>884</v>
       </c>
-      <c r="O297" t="s" s="2">
+      <c r="P297" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="P297" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="Q297" t="s" s="2">
         <v>23</v>
@@ -37926,7 +37923,7 @@
         <v>836</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>76</v>
@@ -37946,13 +37943,13 @@
         <v>520</v>
       </c>
       <c r="B298" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="D298" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="C298" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="D298" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="E298" t="s" s="2">
         <v>23</v>
@@ -37977,16 +37974,16 @@
         <v>447</v>
       </c>
       <c r="M298" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="N298" t="s" s="2">
         <v>883</v>
       </c>
-      <c r="N298" t="s" s="2">
+      <c r="O298" t="s" s="2">
         <v>884</v>
       </c>
-      <c r="O298" t="s" s="2">
+      <c r="P298" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="P298" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="Q298" t="s" s="2">
         <v>23</v>
@@ -38035,7 +38032,7 @@
         <v>23</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>76</v>
@@ -38055,13 +38052,13 @@
         <v>520</v>
       </c>
       <c r="B299" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="D299" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="C299" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="D299" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="E299" t="s" s="2">
         <v>23</v>
@@ -38083,19 +38080,19 @@
         <v>23</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M299" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="N299" t="s" s="2">
         <v>883</v>
       </c>
-      <c r="N299" t="s" s="2">
+      <c r="O299" t="s" s="2">
         <v>884</v>
       </c>
-      <c r="O299" t="s" s="2">
+      <c r="P299" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="P299" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="Q299" t="s" s="2">
         <v>23</v>
@@ -38144,7 +38141,7 @@
         <v>23</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>76</v>
@@ -38164,10 +38161,10 @@
         <v>520</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -38190,19 +38187,19 @@
         <v>23</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="M300" t="s" s="2">
         <v>893</v>
       </c>
-      <c r="M300" t="s" s="2">
+      <c r="N300" t="s" s="2">
         <v>894</v>
       </c>
-      <c r="N300" t="s" s="2">
+      <c r="O300" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="O300" t="s" s="2">
+      <c r="P300" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="P300" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="Q300" t="s" s="2">
         <v>23</v>
@@ -38251,7 +38248,7 @@
         <v>23</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>76</v>
@@ -38271,10 +38268,10 @@
         <v>520</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -38300,16 +38297,16 @@
         <v>486</v>
       </c>
       <c r="M301" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="N301" t="s" s="2">
         <v>899</v>
       </c>
-      <c r="N301" t="s" s="2">
+      <c r="O301" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="O301" t="s" s="2">
+      <c r="P301" t="s" s="2">
         <v>901</v>
-      </c>
-      <c r="P301" t="s" s="2">
-        <v>902</v>
       </c>
       <c r="Q301" t="s" s="2">
         <v>23</v>
@@ -38358,7 +38355,7 @@
         <v>23</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>76</v>
@@ -38370,7 +38367,7 @@
         <v>23</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="302">
@@ -38378,10 +38375,10 @@
         <v>520</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -38481,10 +38478,10 @@
         <v>520</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -38586,10 +38583,10 @@
         <v>520</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -38693,10 +38690,10 @@
         <v>520</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -38722,14 +38719,14 @@
         <v>240</v>
       </c>
       <c r="M305" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="N305" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="O305" s="2"/>
       <c r="P305" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Q305" t="s" s="2">
         <v>23</v>
@@ -38757,11 +38754,11 @@
         <v>241</v>
       </c>
       <c r="Z305" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="AA305" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="AA305" t="s" s="2">
-        <v>912</v>
-      </c>
       <c r="AB305" t="s" s="2">
         <v>23</v>
       </c>
@@ -38778,7 +38775,7 @@
         <v>23</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>76</v>
@@ -38798,10 +38795,10 @@
         <v>520</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -38901,10 +38898,10 @@
         <v>520</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -39006,10 +39003,10 @@
         <v>520</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -39113,10 +39110,10 @@
         <v>520</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -39216,10 +39213,10 @@
         <v>520</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -39321,10 +39318,10 @@
         <v>520</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -39428,10 +39425,10 @@
         <v>520</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -39533,10 +39530,10 @@
         <v>520</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -39638,10 +39635,10 @@
         <v>520</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -39743,10 +39740,10 @@
         <v>520</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -39850,10 +39847,10 @@
         <v>520</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -39957,10 +39954,10 @@
         <v>520</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39986,14 +39983,14 @@
         <v>505</v>
       </c>
       <c r="M317" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="N317" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="N317" t="s" s="2">
-        <v>926</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q317" t="s" s="2">
         <v>23</v>
@@ -40042,7 +40039,7 @@
         <v>23</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>76</v>
@@ -40062,10 +40059,10 @@
         <v>520</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -40165,10 +40162,10 @@
         <v>520</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40270,10 +40267,10 @@
         <v>520</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -40377,10 +40374,10 @@
         <v>520</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -40484,10 +40481,10 @@
         <v>520</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -40589,10 +40586,10 @@
         <v>520</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -40694,10 +40691,10 @@
         <v>520</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -40797,10 +40794,10 @@
         <v>520</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -40900,10 +40897,10 @@
         <v>520</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -41005,10 +41002,10 @@
         <v>520</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -41034,13 +41031,13 @@
         <v>470</v>
       </c>
       <c r="M327" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="N327" t="s" s="2">
         <v>938</v>
       </c>
-      <c r="N327" t="s" s="2">
+      <c r="O327" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>940</v>
       </c>
       <c r="P327" t="s" s="2">
         <v>512</v>
@@ -41092,7 +41089,7 @@
         <v>23</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>76</v>
@@ -41112,10 +41109,10 @@
         <v>520</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -41215,10 +41212,10 @@
         <v>520</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -41320,10 +41317,10 @@
         <v>520</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -41423,10 +41420,10 @@
         <v>520</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -41530,10 +41527,10 @@
         <v>520</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -41637,10 +41634,10 @@
         <v>520</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -41742,10 +41739,10 @@
         <v>520</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -41845,10 +41842,10 @@
         <v>520</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -41883,7 +41880,7 @@
         <v>81</v>
       </c>
       <c r="P335" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Q335" t="s" s="2">
         <v>23</v>
@@ -41932,7 +41929,7 @@
         <v>23</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>76</v>
@@ -41952,10 +41949,10 @@
         <v>520</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -42055,10 +42052,10 @@
         <v>520</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -42160,10 +42157,10 @@
         <v>520</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -42267,10 +42264,10 @@
         <v>520</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -42302,7 +42299,7 @@
         <v>115</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>848</v>
+        <v>116</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
@@ -42372,10 +42369,10 @@
         <v>520</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -42479,10 +42476,10 @@
         <v>520</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -42582,10 +42579,10 @@
         <v>520</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -42685,10 +42682,10 @@
         <v>520</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -42786,10 +42783,10 @@
         <v>520</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D344" t="s" s="2">
         <v>137</v>
@@ -42891,10 +42888,10 @@
         <v>520</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>142</v>
@@ -42996,10 +42993,10 @@
         <v>520</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D346" t="s" s="2">
         <v>147</v>
@@ -43101,10 +43098,10 @@
         <v>520</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D347" t="s" s="2">
         <v>151</v>
@@ -43206,10 +43203,10 @@
         <v>520</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -43309,10 +43306,10 @@
         <v>520</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -43412,10 +43409,10 @@
         <v>520</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -43517,10 +43514,10 @@
         <v>520</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -43620,10 +43617,10 @@
         <v>520</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -43723,10 +43720,10 @@
         <v>520</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -43828,10 +43825,10 @@
         <v>520</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -43933,10 +43930,10 @@
         <v>520</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -43965,11 +43962,11 @@
         <v>811</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q355" t="s" s="2">
         <v>23</v>
@@ -44018,7 +44015,7 @@
         <v>23</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>76</v>
@@ -44038,10 +44035,10 @@
         <v>520</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -44141,10 +44138,10 @@
         <v>520</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -44242,10 +44239,10 @@
         <v>520</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D358" t="s" s="2">
         <v>210</v>
@@ -44347,10 +44344,10 @@
         <v>520</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -44450,10 +44447,10 @@
         <v>520</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -44479,14 +44476,14 @@
         <v>356</v>
       </c>
       <c r="M360" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="N360" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N360" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>23</v>
@@ -44535,7 +44532,7 @@
         <v>23</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>76</v>
@@ -44544,7 +44541,7 @@
         <v>85</v>
       </c>
       <c r="AJ360" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AK360" t="s" s="2">
         <v>112</v>
@@ -44555,10 +44552,10 @@
         <v>520</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -44584,10 +44581,10 @@
         <v>185</v>
       </c>
       <c r="M361" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N361" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="N361" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O361" s="2"/>
       <c r="P361" s="2"/>
@@ -44638,7 +44635,7 @@
         <v>23</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>76</v>
@@ -44658,10 +44655,10 @@
         <v>520</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -44687,16 +44684,16 @@
         <v>486</v>
       </c>
       <c r="M362" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="N362" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="N362" t="s" s="2">
+      <c r="O362" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="O362" t="s" s="2">
+      <c r="P362" t="s" s="2">
         <v>987</v>
-      </c>
-      <c r="P362" t="s" s="2">
-        <v>988</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>23</v>
@@ -44745,7 +44742,7 @@
         <v>23</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>76</v>
@@ -44765,10 +44762,10 @@
         <v>520</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -44868,10 +44865,10 @@
         <v>520</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -44973,10 +44970,10 @@
         <v>520</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -45080,10 +45077,10 @@
         <v>520</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -45109,16 +45106,16 @@
         <v>240</v>
       </c>
       <c r="M366" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="N366" t="s" s="2">
         <v>993</v>
       </c>
-      <c r="N366" t="s" s="2">
+      <c r="O366" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="O366" t="s" s="2">
+      <c r="P366" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="P366" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="Q366" t="s" s="2">
         <v>23</v>
@@ -45167,7 +45164,7 @@
         <v>23</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>85</v>
@@ -45187,10 +45184,10 @@
         <v>520</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -45216,16 +45213,16 @@
         <v>447</v>
       </c>
       <c r="M367" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="N367" t="s" s="2">
         <v>998</v>
       </c>
-      <c r="N367" t="s" s="2">
+      <c r="O367" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="O367" t="s" s="2">
+      <c r="P367" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="P367" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="Q367" t="s" s="2">
         <v>23</v>
@@ -45274,7 +45271,7 @@
         <v>23</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>76</v>
@@ -45294,14 +45291,14 @@
         <v>520</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" t="s" s="2">
@@ -45320,16 +45317,16 @@
         <v>23</v>
       </c>
       <c r="L368" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="M368" t="s" s="2">
         <v>1004</v>
       </c>
-      <c r="M368" t="s" s="2">
+      <c r="N368" t="s" s="2">
         <v>1005</v>
       </c>
-      <c r="N368" t="s" s="2">
+      <c r="O368" t="s" s="2">
         <v>1006</v>
-      </c>
-      <c r="O368" t="s" s="2">
-        <v>1007</v>
       </c>
       <c r="P368" s="2"/>
       <c r="Q368" t="s" s="2">
@@ -45379,7 +45376,7 @@
         <v>23</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>76</v>
@@ -45399,10 +45396,10 @@
         <v>520</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -45428,16 +45425,16 @@
         <v>356</v>
       </c>
       <c r="M369" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="N369" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="N369" t="s" s="2">
+      <c r="O369" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="O369" t="s" s="2">
+      <c r="P369" t="s" s="2">
         <v>1011</v>
-      </c>
-      <c r="P369" t="s" s="2">
-        <v>1012</v>
       </c>
       <c r="Q369" t="s" s="2">
         <v>23</v>
@@ -45486,7 +45483,7 @@
         <v>23</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>76</v>
@@ -45506,10 +45503,10 @@
         <v>520</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -45535,16 +45532,16 @@
         <v>486</v>
       </c>
       <c r="M370" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="N370" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="N370" t="s" s="2">
+      <c r="O370" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="O370" t="s" s="2">
+      <c r="P370" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="P370" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="Q370" t="s" s="2">
         <v>23</v>
@@ -45593,7 +45590,7 @@
         <v>23</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>76</v>
@@ -45613,10 +45610,10 @@
         <v>520</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -45716,10 +45713,10 @@
         <v>520</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45821,10 +45818,10 @@
         <v>520</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -45928,10 +45925,10 @@
         <v>520</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -45954,16 +45951,16 @@
         <v>102</v>
       </c>
       <c r="L374" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="M374" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="M374" t="s" s="2">
+      <c r="N374" t="s" s="2">
         <v>1023</v>
       </c>
-      <c r="N374" t="s" s="2">
+      <c r="O374" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="O374" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="P374" s="2"/>
       <c r="Q374" t="s" s="2">
@@ -46013,7 +46010,7 @@
         <v>23</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>85</v>
@@ -46033,10 +46030,10 @@
         <v>520</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -46062,10 +46059,10 @@
         <v>103</v>
       </c>
       <c r="M375" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="N375" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="N375" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
@@ -46095,11 +46092,11 @@
         <v>109</v>
       </c>
       <c r="Z375" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="AA375" t="s" s="2">
         <v>1028</v>
       </c>
-      <c r="AA375" t="s" s="2">
-        <v>1029</v>
-      </c>
       <c r="AB375" t="s" s="2">
         <v>23</v>
       </c>
@@ -46116,7 +46113,7 @@
         <v>23</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>85</v>
@@ -46133,13 +46130,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -46165,10 +46162,10 @@
         <v>78</v>
       </c>
       <c r="M376" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N376" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="N376" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
@@ -46219,7 +46216,7 @@
         <v>23</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>76</v>
@@ -46236,13 +46233,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -46341,13 +46338,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -46444,13 +46441,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -46549,13 +46546,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -46654,13 +46651,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -46759,13 +46756,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -46864,13 +46861,13 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -46969,13 +46966,13 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -47076,13 +47073,13 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -47108,14 +47105,14 @@
         <v>315</v>
       </c>
       <c r="M385" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N385" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="N385" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="O385" s="2"/>
       <c r="P385" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q385" t="s" s="2">
         <v>23</v>
@@ -47162,7 +47159,7 @@
         <v>98</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>76</v>
@@ -47179,13 +47176,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -47282,13 +47279,13 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -47387,13 +47384,13 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -47494,13 +47491,13 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -47599,13 +47596,13 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -47706,13 +47703,13 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -47811,13 +47808,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47914,13 +47911,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -48019,13 +48016,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D394" t="s" s="2">
         <v>362</v>
@@ -48053,14 +48050,14 @@
         <v>315</v>
       </c>
       <c r="M394" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N394" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="N394" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="O394" s="2"/>
       <c r="P394" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q394" t="s" s="2">
         <v>23</v>
@@ -48109,7 +48106,7 @@
         <v>23</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>76</v>
@@ -48126,13 +48123,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -48229,13 +48226,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -48334,13 +48331,13 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -48441,13 +48438,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -48548,13 +48545,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -48655,13 +48652,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -48760,13 +48757,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -48863,13 +48860,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -48968,13 +48965,13 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B403" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="C403" t="s" s="2">
         <v>1068</v>
-      </c>
-      <c r="C403" t="s" s="2">
-        <v>1069</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -49071,13 +49068,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B404" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="C404" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="C404" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -49176,13 +49173,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B405" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="C405" t="s" s="2">
         <v>1072</v>
-      </c>
-      <c r="C405" t="s" s="2">
-        <v>1073</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -49281,13 +49278,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B406" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="C406" t="s" s="2">
         <v>1074</v>
-      </c>
-      <c r="C406" t="s" s="2">
-        <v>1075</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -49386,13 +49383,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B407" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="C407" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="C407" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -49491,13 +49488,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B408" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="C408" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="C408" t="s" s="2">
-        <v>1079</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -49596,13 +49593,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D409" t="s" s="2">
         <v>409</v>
@@ -49630,14 +49627,14 @@
         <v>315</v>
       </c>
       <c r="M409" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N409" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="N409" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="O409" s="2"/>
       <c r="P409" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q409" t="s" s="2">
         <v>23</v>
@@ -49686,7 +49683,7 @@
         <v>23</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>76</v>
@@ -49703,13 +49700,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49806,13 +49803,13 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49911,13 +49908,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -50018,13 +50015,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -50125,13 +50122,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -50232,13 +50229,13 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -50337,13 +50334,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -50440,13 +50437,13 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -50545,13 +50542,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -50648,13 +50645,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -50753,13 +50750,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -50858,13 +50855,13 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -50963,13 +50960,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -51068,13 +51065,13 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -51173,16 +51170,16 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B424" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="C424" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="D424" t="s" s="2">
         <v>1095</v>
-      </c>
-      <c r="C424" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="D424" t="s" s="2">
-        <v>1096</v>
       </c>
       <c r="E424" t="s" s="2">
         <v>23</v>
@@ -51207,14 +51204,14 @@
         <v>315</v>
       </c>
       <c r="M424" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N424" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="N424" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="O424" s="2"/>
       <c r="P424" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q424" t="s" s="2">
         <v>23</v>
@@ -51263,7 +51260,7 @@
         <v>23</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AH424" t="s" s="2">
         <v>76</v>
@@ -51280,13 +51277,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -51383,13 +51380,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -51488,13 +51485,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -51595,13 +51592,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -51702,13 +51699,13 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -51734,7 +51731,7 @@
         <v>201</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="N429" t="s" s="2">
         <v>340</v>
@@ -51750,7 +51747,7 @@
       </c>
       <c r="R429" s="2"/>
       <c r="S429" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="T429" t="s" s="2">
         <v>23</v>
@@ -51809,13 +51806,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -51914,13 +51911,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -52017,13 +52014,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -52122,13 +52119,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -52225,13 +52222,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -52330,13 +52327,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -52435,13 +52432,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -52540,13 +52537,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -52645,13 +52642,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -52750,13 +52747,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -52782,16 +52779,16 @@
         <v>447</v>
       </c>
       <c r="M439" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="N439" t="s" s="2">
         <v>1114</v>
       </c>
-      <c r="N439" t="s" s="2">
+      <c r="O439" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="O439" t="s" s="2">
+      <c r="P439" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="P439" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>23</v>
@@ -52842,7 +52839,7 @@
         <v>23</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>76</v>
@@ -52859,13 +52856,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -52891,16 +52888,16 @@
         <v>505</v>
       </c>
       <c r="M440" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="N440" t="s" s="2">
         <v>1119</v>
       </c>
-      <c r="N440" t="s" s="2">
+      <c r="O440" t="s" s="2">
         <v>1120</v>
       </c>
-      <c r="O440" t="s" s="2">
+      <c r="P440" t="s" s="2">
         <v>1121</v>
-      </c>
-      <c r="P440" t="s" s="2">
-        <v>1122</v>
       </c>
       <c r="Q440" t="s" s="2">
         <v>23</v>
@@ -52949,7 +52946,7 @@
         <v>23</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AH440" t="s" s="2">
         <v>76</v>
@@ -52966,13 +52963,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -52998,16 +52995,16 @@
         <v>470</v>
       </c>
       <c r="M441" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="N441" t="s" s="2">
         <v>1124</v>
       </c>
-      <c r="N441" t="s" s="2">
+      <c r="O441" t="s" s="2">
         <v>1125</v>
       </c>
-      <c r="O441" t="s" s="2">
+      <c r="P441" t="s" s="2">
         <v>1126</v>
-      </c>
-      <c r="P441" t="s" s="2">
-        <v>1127</v>
       </c>
       <c r="Q441" t="s" s="2">
         <v>23</v>
@@ -53056,7 +53053,7 @@
         <v>23</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>76</v>
@@ -53073,13 +53070,13 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -53114,7 +53111,7 @@
         <v>81</v>
       </c>
       <c r="P442" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Q442" t="s" s="2">
         <v>23</v>
@@ -53163,7 +53160,7 @@
         <v>23</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>76</v>
@@ -53180,13 +53177,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -53215,11 +53212,11 @@
         <v>811</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O443" s="2"/>
       <c r="P443" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q443" t="s" s="2">
         <v>23</v>
@@ -53268,7 +53265,7 @@
         <v>23</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>76</v>
@@ -53285,13 +53282,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -53388,13 +53385,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -53489,13 +53486,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D446" t="s" s="2">
         <v>210</v>
@@ -53594,13 +53591,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -53697,13 +53694,13 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -53729,14 +53726,14 @@
         <v>824</v>
       </c>
       <c r="M448" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="N448" t="s" s="2">
         <v>1137</v>
-      </c>
-      <c r="N448" t="s" s="2">
-        <v>1138</v>
       </c>
       <c r="O448" s="2"/>
       <c r="P448" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Q448" t="s" s="2">
         <v>23</v>
@@ -53785,7 +53782,7 @@
         <v>23</v>
       </c>
       <c r="AG448" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AH448" t="s" s="2">
         <v>76</v>
@@ -53802,13 +53799,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -53831,17 +53828,17 @@
         <v>23</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M449" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="N449" t="s" s="2">
         <v>1141</v>
-      </c>
-      <c r="N449" t="s" s="2">
-        <v>1142</v>
       </c>
       <c r="O449" s="2"/>
       <c r="P449" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="Q449" t="s" s="2">
         <v>23</v>
@@ -53890,7 +53887,7 @@
         <v>23</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>76</v>
@@ -53907,13 +53904,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -53939,10 +53936,10 @@
         <v>486</v>
       </c>
       <c r="M450" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="N450" t="s" s="2">
         <v>1145</v>
-      </c>
-      <c r="N450" t="s" s="2">
-        <v>1146</v>
       </c>
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
@@ -53993,7 +53990,7 @@
         <v>23</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AH450" t="s" s="2">
         <v>76</v>
@@ -54010,13 +54007,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -54113,13 +54110,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -54218,13 +54215,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -54325,13 +54322,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -54357,14 +54354,14 @@
         <v>315</v>
       </c>
       <c r="M454" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="N454" t="s" s="2">
         <v>1151</v>
-      </c>
-      <c r="N454" t="s" s="2">
-        <v>1152</v>
       </c>
       <c r="O454" s="2"/>
       <c r="P454" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q454" t="s" s="2">
         <v>23</v>
@@ -54413,7 +54410,7 @@
         <v>23</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>76</v>
@@ -54430,13 +54427,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -54462,10 +54459,10 @@
         <v>240</v>
       </c>
       <c r="M455" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="N455" t="s" s="2">
         <v>1155</v>
-      </c>
-      <c r="N455" t="s" s="2">
-        <v>1156</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
@@ -54492,14 +54489,14 @@
         <v>23</v>
       </c>
       <c r="Y455" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="Z455" t="s" s="2">
         <v>1157</v>
       </c>
-      <c r="Z455" t="s" s="2">
+      <c r="AA455" t="s" s="2">
         <v>1158</v>
       </c>
-      <c r="AA455" t="s" s="2">
-        <v>1159</v>
-      </c>
       <c r="AB455" t="s" s="2">
         <v>23</v>
       </c>
@@ -54516,7 +54513,7 @@
         <v>23</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>85</v>
@@ -54533,13 +54530,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -54565,14 +54562,14 @@
         <v>185</v>
       </c>
       <c r="M456" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="N456" t="s" s="2">
         <v>1161</v>
-      </c>
-      <c r="N456" t="s" s="2">
-        <v>1162</v>
       </c>
       <c r="O456" s="2"/>
       <c r="P456" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Q456" t="s" s="2">
         <v>23</v>
@@ -54621,7 +54618,7 @@
         <v>23</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>76</v>
@@ -54638,13 +54635,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
@@ -54670,10 +54667,10 @@
         <v>356</v>
       </c>
       <c r="M457" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="N457" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="N457" t="s" s="2">
-        <v>1166</v>
       </c>
       <c r="O457" s="2"/>
       <c r="P457" s="2"/>
@@ -54724,7 +54721,7 @@
         <v>23</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>76</v>
@@ -54741,13 +54738,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -54773,16 +54770,16 @@
         <v>240</v>
       </c>
       <c r="M458" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="N458" t="s" s="2">
         <v>1168</v>
       </c>
-      <c r="N458" t="s" s="2">
+      <c r="O458" t="s" s="2">
         <v>1169</v>
       </c>
-      <c r="O458" t="s" s="2">
+      <c r="P458" t="s" s="2">
         <v>1170</v>
-      </c>
-      <c r="P458" t="s" s="2">
-        <v>1171</v>
       </c>
       <c r="Q458" t="s" s="2">
         <v>23</v>
@@ -54831,7 +54828,7 @@
         <v>23</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>76</v>
@@ -54848,13 +54845,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -54880,10 +54877,10 @@
         <v>78</v>
       </c>
       <c r="M459" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="N459" t="s" s="2">
         <v>1179</v>
-      </c>
-      <c r="N459" t="s" s="2">
-        <v>1180</v>
       </c>
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
@@ -54934,7 +54931,7 @@
         <v>23</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>76</v>
@@ -54951,13 +54948,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -55056,13 +55053,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -55159,13 +55156,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -55264,13 +55261,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -55369,13 +55366,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -55474,13 +55471,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -55579,13 +55576,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -55684,13 +55681,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -55791,13 +55788,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -55823,14 +55820,14 @@
         <v>315</v>
       </c>
       <c r="M468" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="N468" t="s" s="2">
         <v>1190</v>
-      </c>
-      <c r="N468" t="s" s="2">
-        <v>1191</v>
       </c>
       <c r="O468" s="2"/>
       <c r="P468" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q468" t="s" s="2">
         <v>23</v>
@@ -55879,7 +55876,7 @@
         <v>23</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>76</v>
@@ -55896,13 +55893,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -55928,16 +55925,16 @@
         <v>447</v>
       </c>
       <c r="M469" t="s" s="2">
+        <v>1192</v>
+      </c>
+      <c r="N469" t="s" s="2">
         <v>1193</v>
       </c>
-      <c r="N469" t="s" s="2">
+      <c r="O469" t="s" s="2">
         <v>1194</v>
       </c>
-      <c r="O469" t="s" s="2">
+      <c r="P469" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="P469" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="Q469" t="s" s="2">
         <v>23</v>
@@ -55988,7 +55985,7 @@
         <v>23</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>76</v>
@@ -56005,13 +56002,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -56037,14 +56034,14 @@
         <v>185</v>
       </c>
       <c r="M470" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="N470" t="s" s="2">
         <v>1198</v>
-      </c>
-      <c r="N470" t="s" s="2">
-        <v>1199</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q470" t="s" s="2">
         <v>23</v>
@@ -56093,7 +56090,7 @@
         <v>23</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>76</v>
@@ -56110,13 +56107,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -56139,13 +56136,13 @@
         <v>102</v>
       </c>
       <c r="L471" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="M471" t="s" s="2">
         <v>1202</v>
       </c>
-      <c r="M471" t="s" s="2">
+      <c r="N471" t="s" s="2">
         <v>1203</v>
-      </c>
-      <c r="N471" t="s" s="2">
-        <v>1204</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
@@ -56196,7 +56193,7 @@
         <v>23</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>76</v>
@@ -56213,13 +56210,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -56242,13 +56239,13 @@
         <v>102</v>
       </c>
       <c r="L472" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="M472" t="s" s="2">
         <v>1206</v>
       </c>
-      <c r="M472" t="s" s="2">
+      <c r="N472" t="s" s="2">
         <v>1207</v>
-      </c>
-      <c r="N472" t="s" s="2">
-        <v>1208</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
@@ -56299,7 +56296,7 @@
         <v>23</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>76</v>
@@ -56316,13 +56313,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -56348,16 +56345,16 @@
         <v>240</v>
       </c>
       <c r="M473" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="N473" t="s" s="2">
         <v>1210</v>
       </c>
-      <c r="N473" t="s" s="2">
+      <c r="O473" t="s" s="2">
         <v>1211</v>
       </c>
-      <c r="O473" t="s" s="2">
+      <c r="P473" t="s" s="2">
         <v>1212</v>
-      </c>
-      <c r="P473" t="s" s="2">
-        <v>1213</v>
       </c>
       <c r="Q473" t="s" s="2">
         <v>23</v>
@@ -56386,7 +56383,7 @@
       </c>
       <c r="Z473" s="2"/>
       <c r="AA473" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AB473" t="s" s="2">
         <v>23</v>
@@ -56404,7 +56401,7 @@
         <v>23</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>76</v>
@@ -56421,13 +56418,13 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -56453,10 +56450,10 @@
         <v>240</v>
       </c>
       <c r="M474" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="N474" t="s" s="2">
         <v>1216</v>
-      </c>
-      <c r="N474" t="s" s="2">
-        <v>1217</v>
       </c>
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
@@ -56486,11 +56483,11 @@
         <v>288</v>
       </c>
       <c r="Z474" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="AA474" t="s" s="2">
         <v>1218</v>
       </c>
-      <c r="AA474" t="s" s="2">
-        <v>1219</v>
-      </c>
       <c r="AB474" t="s" s="2">
         <v>23</v>
       </c>
@@ -56507,7 +56504,7 @@
         <v>23</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AH474" t="s" s="2">
         <v>76</v>
@@ -56524,13 +56521,13 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -56553,13 +56550,13 @@
         <v>102</v>
       </c>
       <c r="L475" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="M475" t="s" s="2">
         <v>1221</v>
       </c>
-      <c r="M475" t="s" s="2">
+      <c r="N475" t="s" s="2">
         <v>1222</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>1223</v>
       </c>
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
@@ -56610,7 +56607,7 @@
         <v>23</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>76</v>
@@ -56627,13 +56624,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -56656,13 +56653,13 @@
         <v>23</v>
       </c>
       <c r="L476" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="M476" t="s" s="2">
         <v>1225</v>
       </c>
-      <c r="M476" t="s" s="2">
+      <c r="N476" t="s" s="2">
         <v>1226</v>
-      </c>
-      <c r="N476" t="s" s="2">
-        <v>1227</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -56713,7 +56710,7 @@
         <v>23</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>76</v>
@@ -56730,13 +56727,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -56762,14 +56759,14 @@
         <v>470</v>
       </c>
       <c r="M477" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="N477" t="s" s="2">
         <v>1229</v>
-      </c>
-      <c r="N477" t="s" s="2">
-        <v>1230</v>
       </c>
       <c r="O477" s="2"/>
       <c r="P477" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Q477" t="s" s="2">
         <v>23</v>
@@ -56818,7 +56815,7 @@
         <v>23</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>76</v>
@@ -56835,13 +56832,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -56867,13 +56864,13 @@
         <v>486</v>
       </c>
       <c r="M478" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="N478" t="s" s="2">
         <v>1233</v>
       </c>
-      <c r="N478" t="s" s="2">
+      <c r="O478" t="s" s="2">
         <v>1234</v>
-      </c>
-      <c r="O478" t="s" s="2">
-        <v>1235</v>
       </c>
       <c r="P478" s="2"/>
       <c r="Q478" t="s" s="2">
@@ -56923,7 +56920,7 @@
         <v>23</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>76</v>
@@ -56940,13 +56937,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -57043,13 +57040,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -57148,13 +57145,13 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -57255,13 +57252,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -57287,10 +57284,10 @@
         <v>103</v>
       </c>
       <c r="M482" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="N482" t="s" s="2">
         <v>1240</v>
-      </c>
-      <c r="N482" t="s" s="2">
-        <v>1241</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -57320,11 +57317,11 @@
         <v>109</v>
       </c>
       <c r="Z482" t="s" s="2">
+        <v>1241</v>
+      </c>
+      <c r="AA482" t="s" s="2">
         <v>1242</v>
       </c>
-      <c r="AA482" t="s" s="2">
-        <v>1243</v>
-      </c>
       <c r="AB482" t="s" s="2">
         <v>23</v>
       </c>
@@ -57341,7 +57338,7 @@
         <v>23</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>76</v>
@@ -57358,13 +57355,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -57390,10 +57387,10 @@
         <v>447</v>
       </c>
       <c r="M483" t="s" s="2">
+        <v>1244</v>
+      </c>
+      <c r="N483" t="s" s="2">
         <v>1245</v>
-      </c>
-      <c r="N483" t="s" s="2">
-        <v>1246</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
@@ -57444,7 +57441,7 @@
         <v>23</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>76</v>
@@ -57461,13 +57458,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -57490,16 +57487,16 @@
         <v>23</v>
       </c>
       <c r="L484" t="s" s="2">
+        <v>1247</v>
+      </c>
+      <c r="M484" t="s" s="2">
         <v>1248</v>
       </c>
-      <c r="M484" t="s" s="2">
+      <c r="N484" t="s" s="2">
         <v>1249</v>
       </c>
-      <c r="N484" t="s" s="2">
+      <c r="O484" t="s" s="2">
         <v>1250</v>
-      </c>
-      <c r="O484" t="s" s="2">
-        <v>1251</v>
       </c>
       <c r="P484" s="2"/>
       <c r="Q484" t="s" s="2">
@@ -57549,7 +57546,7 @@
         <v>23</v>
       </c>
       <c r="AG484" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AH484" t="s" s="2">
         <v>76</v>
@@ -57566,13 +57563,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -57595,16 +57592,16 @@
         <v>23</v>
       </c>
       <c r="L485" t="s" s="2">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M485" t="s" s="2">
+        <v>1252</v>
+      </c>
+      <c r="N485" t="s" s="2">
         <v>1253</v>
       </c>
-      <c r="N485" t="s" s="2">
-        <v>1254</v>
-      </c>
       <c r="O485" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="P485" s="2"/>
       <c r="Q485" t="s" s="2">
@@ -57654,7 +57651,7 @@
         <v>23</v>
       </c>
       <c r="AG485" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AH485" t="s" s="2">
         <v>76</v>
@@ -57671,13 +57668,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -57703,10 +57700,10 @@
         <v>486</v>
       </c>
       <c r="M486" t="s" s="2">
+        <v>1255</v>
+      </c>
+      <c r="N486" t="s" s="2">
         <v>1256</v>
-      </c>
-      <c r="N486" t="s" s="2">
-        <v>1257</v>
       </c>
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
@@ -57757,7 +57754,7 @@
         <v>23</v>
       </c>
       <c r="AG486" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AH486" t="s" s="2">
         <v>76</v>
@@ -57774,13 +57771,13 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -57877,13 +57874,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -57982,13 +57979,13 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -58089,13 +58086,13 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -58121,10 +58118,10 @@
         <v>86</v>
       </c>
       <c r="M490" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="N490" t="s" s="2">
         <v>1262</v>
-      </c>
-      <c r="N490" t="s" s="2">
-        <v>1263</v>
       </c>
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
@@ -58175,7 +58172,7 @@
         <v>23</v>
       </c>
       <c r="AG490" t="s" s="2">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AH490" t="s" s="2">
         <v>85</v>
@@ -58192,13 +58189,13 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -58224,10 +58221,10 @@
         <v>185</v>
       </c>
       <c r="M491" t="s" s="2">
+        <v>1264</v>
+      </c>
+      <c r="N491" t="s" s="2">
         <v>1265</v>
-      </c>
-      <c r="N491" t="s" s="2">
-        <v>1266</v>
       </c>
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
@@ -58278,7 +58275,7 @@
         <v>23</v>
       </c>
       <c r="AG491" t="s" s="2">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AH491" t="s" s="2">
         <v>76</v>
@@ -58295,13 +58292,13 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -58327,10 +58324,10 @@
         <v>86</v>
       </c>
       <c r="M492" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="N492" t="s" s="2">
         <v>1268</v>
-      </c>
-      <c r="N492" t="s" s="2">
-        <v>1269</v>
       </c>
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
@@ -58381,7 +58378,7 @@
         <v>23</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>76</v>
@@ -58398,13 +58395,13 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -58430,14 +58427,14 @@
         <v>516</v>
       </c>
       <c r="M493" t="s" s="2">
+        <v>1270</v>
+      </c>
+      <c r="N493" t="s" s="2">
         <v>1271</v>
-      </c>
-      <c r="N493" t="s" s="2">
-        <v>1272</v>
       </c>
       <c r="O493" s="2"/>
       <c r="P493" t="s" s="2">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q493" t="s" s="2">
         <v>23</v>
@@ -58486,7 +58483,7 @@
         <v>23</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>76</v>
@@ -58503,13 +58500,13 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -58535,10 +58532,10 @@
         <v>78</v>
       </c>
       <c r="M494" t="s" s="2">
+        <v>1280</v>
+      </c>
+      <c r="N494" t="s" s="2">
         <v>1281</v>
-      </c>
-      <c r="N494" t="s" s="2">
-        <v>1282</v>
       </c>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
@@ -58589,7 +58586,7 @@
         <v>23</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>76</v>
@@ -58601,18 +58598,18 @@
         <v>23</v>
       </c>
       <c r="AK494" t="s" s="2">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -58711,13 +58708,13 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -58814,13 +58811,13 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -58919,13 +58916,13 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -59024,13 +59021,13 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -59129,13 +59126,13 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -59234,13 +59231,13 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -59339,13 +59336,13 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -59446,13 +59443,13 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -59478,16 +59475,16 @@
         <v>201</v>
       </c>
       <c r="M503" t="s" s="2">
+        <v>1292</v>
+      </c>
+      <c r="N503" t="s" s="2">
         <v>1293</v>
       </c>
-      <c r="N503" t="s" s="2">
+      <c r="O503" t="s" s="2">
         <v>1294</v>
       </c>
-      <c r="O503" t="s" s="2">
+      <c r="P503" t="s" s="2">
         <v>1295</v>
-      </c>
-      <c r="P503" t="s" s="2">
-        <v>1296</v>
       </c>
       <c r="Q503" t="s" s="2">
         <v>23</v>
@@ -59536,7 +59533,7 @@
         <v>23</v>
       </c>
       <c r="AG503" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AH503" t="s" s="2">
         <v>76</v>
@@ -59553,13 +59550,13 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -59585,16 +59582,16 @@
         <v>315</v>
       </c>
       <c r="M504" t="s" s="2">
+        <v>1297</v>
+      </c>
+      <c r="N504" t="s" s="2">
         <v>1298</v>
       </c>
-      <c r="N504" t="s" s="2">
+      <c r="O504" t="s" s="2">
         <v>1299</v>
       </c>
-      <c r="O504" t="s" s="2">
+      <c r="P504" t="s" s="2">
         <v>1300</v>
-      </c>
-      <c r="P504" t="s" s="2">
-        <v>1301</v>
       </c>
       <c r="Q504" t="s" s="2">
         <v>23</v>
@@ -59643,7 +59640,7 @@
         <v>23</v>
       </c>
       <c r="AG504" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AH504" t="s" s="2">
         <v>76</v>
@@ -59660,13 +59657,13 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -59692,13 +59689,13 @@
         <v>86</v>
       </c>
       <c r="M505" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="N505" t="s" s="2">
         <v>1303</v>
       </c>
-      <c r="N505" t="s" s="2">
+      <c r="O505" t="s" s="2">
         <v>1304</v>
-      </c>
-      <c r="O505" t="s" s="2">
-        <v>1305</v>
       </c>
       <c r="P505" s="2"/>
       <c r="Q505" t="s" s="2">
@@ -59748,7 +59745,7 @@
         <v>23</v>
       </c>
       <c r="AG505" t="s" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AH505" t="s" s="2">
         <v>76</v>
@@ -59765,13 +59762,13 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
@@ -59797,16 +59794,16 @@
         <v>86</v>
       </c>
       <c r="M506" t="s" s="2">
+        <v>1306</v>
+      </c>
+      <c r="N506" t="s" s="2">
         <v>1307</v>
       </c>
-      <c r="N506" t="s" s="2">
+      <c r="O506" t="s" s="2">
         <v>1308</v>
       </c>
-      <c r="O506" t="s" s="2">
+      <c r="P506" t="s" s="2">
         <v>1309</v>
-      </c>
-      <c r="P506" t="s" s="2">
-        <v>1310</v>
       </c>
       <c r="Q506" t="s" s="2">
         <v>23</v>
@@ -59855,7 +59852,7 @@
         <v>23</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>76</v>
@@ -59864,7 +59861,7 @@
         <v>85</v>
       </c>
       <c r="AJ506" t="s" s="2">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AK506" t="s" s="2">
         <v>112</v>
@@ -59872,13 +59869,13 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -59904,13 +59901,13 @@
         <v>86</v>
       </c>
       <c r="M507" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N507" t="s" s="2">
         <v>1313</v>
       </c>
-      <c r="N507" t="s" s="2">
+      <c r="O507" t="s" s="2">
         <v>1314</v>
-      </c>
-      <c r="O507" t="s" s="2">
-        <v>1315</v>
       </c>
       <c r="P507" s="2"/>
       <c r="Q507" t="s" s="2">
@@ -59960,7 +59957,7 @@
         <v>23</v>
       </c>
       <c r="AG507" t="s" s="2">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AH507" t="s" s="2">
         <v>76</v>
@@ -59977,13 +59974,13 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -60009,13 +60006,13 @@
         <v>103</v>
       </c>
       <c r="M508" t="s" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N508" t="s" s="2">
         <v>1317</v>
       </c>
-      <c r="N508" t="s" s="2">
+      <c r="O508" t="s" s="2">
         <v>1318</v>
-      </c>
-      <c r="O508" t="s" s="2">
-        <v>1319</v>
       </c>
       <c r="P508" s="2"/>
       <c r="Q508" t="s" s="2">
@@ -60044,11 +60041,11 @@
         <v>109</v>
       </c>
       <c r="Z508" t="s" s="2">
+        <v>1319</v>
+      </c>
+      <c r="AA508" t="s" s="2">
         <v>1320</v>
       </c>
-      <c r="AA508" t="s" s="2">
-        <v>1321</v>
-      </c>
       <c r="AB508" t="s" s="2">
         <v>23</v>
       </c>
@@ -60065,7 +60062,7 @@
         <v>23</v>
       </c>
       <c r="AG508" t="s" s="2">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AH508" t="s" s="2">
         <v>85</v>
@@ -60082,13 +60079,13 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -60114,16 +60111,16 @@
         <v>447</v>
       </c>
       <c r="M509" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="N509" t="s" s="2">
         <v>1323</v>
       </c>
-      <c r="N509" t="s" s="2">
+      <c r="O509" t="s" s="2">
         <v>1324</v>
       </c>
-      <c r="O509" t="s" s="2">
+      <c r="P509" t="s" s="2">
         <v>1325</v>
-      </c>
-      <c r="P509" t="s" s="2">
-        <v>1326</v>
       </c>
       <c r="Q509" t="s" s="2">
         <v>23</v>
@@ -60172,7 +60169,7 @@
         <v>23</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>76</v>
@@ -60189,17 +60186,17 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F510" s="2"/>
       <c r="G510" t="s" s="2">
@@ -60221,13 +60218,13 @@
         <v>841</v>
       </c>
       <c r="M510" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="N510" t="s" s="2">
         <v>1329</v>
       </c>
-      <c r="N510" t="s" s="2">
+      <c r="O510" t="s" s="2">
         <v>1330</v>
-      </c>
-      <c r="O510" t="s" s="2">
-        <v>1331</v>
       </c>
       <c r="P510" s="2"/>
       <c r="Q510" t="s" s="2">
@@ -60277,7 +60274,7 @@
         <v>23</v>
       </c>
       <c r="AG510" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AH510" t="s" s="2">
         <v>76</v>
@@ -60294,13 +60291,13 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -60326,16 +60323,16 @@
         <v>86</v>
       </c>
       <c r="M511" t="s" s="2">
+        <v>1332</v>
+      </c>
+      <c r="N511" t="s" s="2">
         <v>1333</v>
       </c>
-      <c r="N511" t="s" s="2">
+      <c r="O511" t="s" s="2">
         <v>1334</v>
       </c>
-      <c r="O511" t="s" s="2">
+      <c r="P511" t="s" s="2">
         <v>1335</v>
-      </c>
-      <c r="P511" t="s" s="2">
-        <v>1336</v>
       </c>
       <c r="Q511" t="s" s="2">
         <v>23</v>
@@ -60384,7 +60381,7 @@
         <v>23</v>
       </c>
       <c r="AG511" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="AH511" t="s" s="2">
         <v>76</v>
@@ -60401,13 +60398,13 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -60430,16 +60427,16 @@
         <v>102</v>
       </c>
       <c r="L512" t="s" s="2">
+        <v>1337</v>
+      </c>
+      <c r="M512" t="s" s="2">
         <v>1338</v>
       </c>
-      <c r="M512" t="s" s="2">
+      <c r="N512" t="s" s="2">
         <v>1339</v>
       </c>
-      <c r="N512" t="s" s="2">
+      <c r="O512" t="s" s="2">
         <v>1340</v>
-      </c>
-      <c r="O512" t="s" s="2">
-        <v>1341</v>
       </c>
       <c r="P512" s="2"/>
       <c r="Q512" t="s" s="2">
@@ -60489,7 +60486,7 @@
         <v>23</v>
       </c>
       <c r="AG512" t="s" s="2">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AH512" t="s" s="2">
         <v>76</v>
@@ -60506,17 +60503,17 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F513" s="2"/>
       <c r="G513" t="s" s="2">
@@ -60535,16 +60532,16 @@
         <v>23</v>
       </c>
       <c r="L513" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="M513" t="s" s="2">
         <v>1344</v>
       </c>
-      <c r="M513" t="s" s="2">
+      <c r="N513" t="s" s="2">
         <v>1345</v>
       </c>
-      <c r="N513" t="s" s="2">
+      <c r="O513" t="s" s="2">
         <v>1346</v>
-      </c>
-      <c r="O513" t="s" s="2">
-        <v>1347</v>
       </c>
       <c r="P513" s="2"/>
       <c r="Q513" t="s" s="2">
@@ -60594,7 +60591,7 @@
         <v>23</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>76</v>
@@ -60611,13 +60608,13 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -60640,19 +60637,19 @@
         <v>102</v>
       </c>
       <c r="L514" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="M514" t="s" s="2">
         <v>1349</v>
       </c>
-      <c r="M514" t="s" s="2">
+      <c r="N514" t="s" s="2">
         <v>1350</v>
       </c>
-      <c r="N514" t="s" s="2">
+      <c r="O514" t="s" s="2">
         <v>1351</v>
       </c>
-      <c r="O514" t="s" s="2">
+      <c r="P514" t="s" s="2">
         <v>1352</v>
-      </c>
-      <c r="P514" t="s" s="2">
-        <v>1353</v>
       </c>
       <c r="Q514" t="s" s="2">
         <v>23</v>
@@ -60701,7 +60698,7 @@
         <v>23</v>
       </c>
       <c r="AG514" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="AH514" t="s" s="2">
         <v>76</v>
@@ -60718,13 +60715,13 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -60750,13 +60747,13 @@
         <v>240</v>
       </c>
       <c r="M515" t="s" s="2">
+        <v>1354</v>
+      </c>
+      <c r="N515" t="s" s="2">
         <v>1355</v>
       </c>
-      <c r="N515" t="s" s="2">
+      <c r="O515" t="s" s="2">
         <v>1356</v>
-      </c>
-      <c r="O515" t="s" s="2">
-        <v>1357</v>
       </c>
       <c r="P515" s="2"/>
       <c r="Q515" t="s" s="2">
@@ -60785,11 +60782,11 @@
         <v>241</v>
       </c>
       <c r="Z515" t="s" s="2">
+        <v>1357</v>
+      </c>
+      <c r="AA515" t="s" s="2">
         <v>1358</v>
       </c>
-      <c r="AA515" t="s" s="2">
-        <v>1359</v>
-      </c>
       <c r="AB515" t="s" s="2">
         <v>23</v>
       </c>
@@ -60806,7 +60803,7 @@
         <v>23</v>
       </c>
       <c r="AG515" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AH515" t="s" s="2">
         <v>76</v>
@@ -60823,13 +60820,13 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -60855,13 +60852,13 @@
         <v>447</v>
       </c>
       <c r="M516" t="s" s="2">
+        <v>1360</v>
+      </c>
+      <c r="N516" t="s" s="2">
         <v>1361</v>
       </c>
-      <c r="N516" t="s" s="2">
+      <c r="O516" t="s" s="2">
         <v>1362</v>
-      </c>
-      <c r="O516" t="s" s="2">
-        <v>1363</v>
       </c>
       <c r="P516" s="2"/>
       <c r="Q516" t="s" s="2">
@@ -60911,7 +60908,7 @@
         <v>23</v>
       </c>
       <c r="AG516" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="AH516" t="s" s="2">
         <v>76</v>
@@ -60928,13 +60925,13 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -60957,16 +60954,16 @@
         <v>23</v>
       </c>
       <c r="L517" t="s" s="2">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="M517" t="s" s="2">
+        <v>1364</v>
+      </c>
+      <c r="N517" t="s" s="2">
         <v>1365</v>
       </c>
-      <c r="N517" t="s" s="2">
+      <c r="O517" t="s" s="2">
         <v>1366</v>
-      </c>
-      <c r="O517" t="s" s="2">
-        <v>1367</v>
       </c>
       <c r="P517" s="2"/>
       <c r="Q517" t="s" s="2">
@@ -61016,7 +61013,7 @@
         <v>23</v>
       </c>
       <c r="AG517" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="AH517" t="s" s="2">
         <v>76</v>
@@ -61033,17 +61030,17 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F518" s="2"/>
       <c r="G518" t="s" s="2">
@@ -61062,19 +61059,19 @@
         <v>23</v>
       </c>
       <c r="L518" t="s" s="2">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="M518" t="s" s="2">
+        <v>1369</v>
+      </c>
+      <c r="N518" t="s" s="2">
         <v>1370</v>
       </c>
-      <c r="N518" t="s" s="2">
+      <c r="O518" t="s" s="2">
         <v>1371</v>
       </c>
-      <c r="O518" t="s" s="2">
+      <c r="P518" t="s" s="2">
         <v>1372</v>
-      </c>
-      <c r="P518" t="s" s="2">
-        <v>1373</v>
       </c>
       <c r="Q518" t="s" s="2">
         <v>23</v>
@@ -61123,7 +61120,7 @@
         <v>23</v>
       </c>
       <c r="AG518" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AH518" t="s" s="2">
         <v>76</v>
@@ -61140,17 +61137,17 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F519" s="2"/>
       <c r="G519" t="s" s="2">
@@ -61172,10 +61169,10 @@
         <v>486</v>
       </c>
       <c r="M519" t="s" s="2">
+        <v>1375</v>
+      </c>
+      <c r="N519" t="s" s="2">
         <v>1376</v>
-      </c>
-      <c r="N519" t="s" s="2">
-        <v>1377</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" s="2"/>
@@ -61226,7 +61223,7 @@
         <v>23</v>
       </c>
       <c r="AG519" t="s" s="2">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="AH519" t="s" s="2">
         <v>76</v>
@@ -61243,13 +61240,13 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -61346,13 +61343,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -61451,13 +61448,13 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -61558,13 +61555,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -61590,13 +61587,13 @@
         <v>824</v>
       </c>
       <c r="M523" t="s" s="2">
+        <v>1381</v>
+      </c>
+      <c r="N523" t="s" s="2">
         <v>1382</v>
       </c>
-      <c r="N523" t="s" s="2">
+      <c r="O523" t="s" s="2">
         <v>1383</v>
-      </c>
-      <c r="O523" t="s" s="2">
-        <v>1384</v>
       </c>
       <c r="P523" s="2"/>
       <c r="Q523" t="s" s="2">
@@ -61646,7 +61643,7 @@
         <v>23</v>
       </c>
       <c r="AG523" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="AH523" t="s" s="2">
         <v>76</v>
@@ -61663,13 +61660,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -61695,13 +61692,13 @@
         <v>447</v>
       </c>
       <c r="M524" t="s" s="2">
+        <v>1385</v>
+      </c>
+      <c r="N524" t="s" s="2">
         <v>1386</v>
       </c>
-      <c r="N524" t="s" s="2">
+      <c r="O524" t="s" s="2">
         <v>1387</v>
-      </c>
-      <c r="O524" t="s" s="2">
-        <v>1388</v>
       </c>
       <c r="P524" s="2"/>
       <c r="Q524" t="s" s="2">
@@ -61751,7 +61748,7 @@
         <v>23</v>
       </c>
       <c r="AG524" t="s" s="2">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AH524" t="s" s="2">
         <v>76</v>
@@ -61768,13 +61765,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -61800,13 +61797,13 @@
         <v>486</v>
       </c>
       <c r="M525" t="s" s="2">
+        <v>1389</v>
+      </c>
+      <c r="N525" t="s" s="2">
         <v>1390</v>
       </c>
-      <c r="N525" t="s" s="2">
+      <c r="O525" t="s" s="2">
         <v>1391</v>
-      </c>
-      <c r="O525" t="s" s="2">
-        <v>1392</v>
       </c>
       <c r="P525" s="2"/>
       <c r="Q525" t="s" s="2">
@@ -61856,7 +61853,7 @@
         <v>23</v>
       </c>
       <c r="AG525" t="s" s="2">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="AH525" t="s" s="2">
         <v>85</v>
@@ -61868,18 +61865,18 @@
         <v>23</v>
       </c>
       <c r="AK525" t="s" s="2">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -61976,13 +61973,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -62077,16 +62074,16 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B528" t="s" s="2">
+        <v>1395</v>
+      </c>
+      <c r="C528" t="s" s="2">
+        <v>1394</v>
+      </c>
+      <c r="D528" t="s" s="2">
         <v>1396</v>
-      </c>
-      <c r="C528" t="s" s="2">
-        <v>1395</v>
-      </c>
-      <c r="D528" t="s" s="2">
-        <v>1397</v>
       </c>
       <c r="E528" t="s" s="2">
         <v>23</v>
@@ -62108,13 +62105,13 @@
         <v>23</v>
       </c>
       <c r="L528" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="M528" t="s" s="2">
         <v>1398</v>
       </c>
-      <c r="M528" t="s" s="2">
+      <c r="N528" t="s" s="2">
         <v>1399</v>
-      </c>
-      <c r="N528" t="s" s="2">
-        <v>1400</v>
       </c>
       <c r="O528" s="2"/>
       <c r="P528" s="2"/>
@@ -62182,13 +62179,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -62289,13 +62286,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -62321,13 +62318,13 @@
         <v>201</v>
       </c>
       <c r="M530" t="s" s="2">
+        <v>1402</v>
+      </c>
+      <c r="N530" t="s" s="2">
         <v>1403</v>
       </c>
-      <c r="N530" t="s" s="2">
+      <c r="O530" t="s" s="2">
         <v>1404</v>
-      </c>
-      <c r="O530" t="s" s="2">
-        <v>1405</v>
       </c>
       <c r="P530" s="2"/>
       <c r="Q530" t="s" s="2">
@@ -62377,7 +62374,7 @@
         <v>23</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>76</v>
@@ -62386,7 +62383,7 @@
         <v>85</v>
       </c>
       <c r="AJ530" t="s" s="2">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AK530" t="s" s="2">
         <v>112</v>
@@ -62394,13 +62391,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -62426,13 +62423,13 @@
         <v>86</v>
       </c>
       <c r="M531" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="N531" t="s" s="2">
         <v>1408</v>
       </c>
-      <c r="N531" t="s" s="2">
+      <c r="O531" t="s" s="2">
         <v>1409</v>
-      </c>
-      <c r="O531" t="s" s="2">
-        <v>1410</v>
       </c>
       <c r="P531" s="2"/>
       <c r="Q531" t="s" s="2">
@@ -62482,7 +62479,7 @@
         <v>23</v>
       </c>
       <c r="AG531" t="s" s="2">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AH531" t="s" s="2">
         <v>76</v>
@@ -62499,13 +62496,13 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -62531,13 +62528,13 @@
         <v>486</v>
       </c>
       <c r="M532" t="s" s="2">
+        <v>1411</v>
+      </c>
+      <c r="N532" t="s" s="2">
         <v>1412</v>
       </c>
-      <c r="N532" t="s" s="2">
+      <c r="O532" t="s" s="2">
         <v>1413</v>
-      </c>
-      <c r="O532" t="s" s="2">
-        <v>1414</v>
       </c>
       <c r="P532" s="2"/>
       <c r="Q532" t="s" s="2">
@@ -62587,7 +62584,7 @@
         <v>23</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>76</v>
@@ -62596,7 +62593,7 @@
         <v>77</v>
       </c>
       <c r="AJ532" t="s" s="2">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AK532" t="s" s="2">
         <v>112</v>
@@ -62604,13 +62601,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -62707,13 +62704,13 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
@@ -62812,13 +62809,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -62919,13 +62916,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -62951,13 +62948,13 @@
         <v>103</v>
       </c>
       <c r="M536" t="s" s="2">
+        <v>1419</v>
+      </c>
+      <c r="N536" t="s" s="2">
         <v>1420</v>
       </c>
-      <c r="N536" t="s" s="2">
+      <c r="O536" t="s" s="2">
         <v>1421</v>
-      </c>
-      <c r="O536" t="s" s="2">
-        <v>1422</v>
       </c>
       <c r="P536" s="2"/>
       <c r="Q536" t="s" s="2">
@@ -63007,7 +63004,7 @@
         <v>23</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>85</v>
@@ -63024,13 +63021,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -63056,13 +63053,13 @@
         <v>86</v>
       </c>
       <c r="M537" t="s" s="2">
+        <v>1423</v>
+      </c>
+      <c r="N537" t="s" s="2">
         <v>1424</v>
       </c>
-      <c r="N537" t="s" s="2">
+      <c r="O537" t="s" s="2">
         <v>1425</v>
-      </c>
-      <c r="O537" t="s" s="2">
-        <v>1426</v>
       </c>
       <c r="P537" s="2"/>
       <c r="Q537" t="s" s="2">
@@ -63112,7 +63109,7 @@
         <v>23</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>76</v>
@@ -63129,13 +63126,13 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -63161,13 +63158,13 @@
         <v>486</v>
       </c>
       <c r="M538" t="s" s="2">
+        <v>1427</v>
+      </c>
+      <c r="N538" t="s" s="2">
         <v>1428</v>
       </c>
-      <c r="N538" t="s" s="2">
+      <c r="O538" t="s" s="2">
         <v>1429</v>
-      </c>
-      <c r="O538" t="s" s="2">
-        <v>1430</v>
       </c>
       <c r="P538" s="2"/>
       <c r="Q538" t="s" s="2">
@@ -63217,7 +63214,7 @@
         <v>23</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>76</v>
@@ -63234,13 +63231,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -63337,13 +63334,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -63442,13 +63439,13 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -63549,13 +63546,13 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -63581,13 +63578,13 @@
         <v>103</v>
       </c>
       <c r="M542" t="s" s="2">
+        <v>1434</v>
+      </c>
+      <c r="N542" t="s" s="2">
         <v>1435</v>
       </c>
-      <c r="N542" t="s" s="2">
+      <c r="O542" t="s" s="2">
         <v>1436</v>
-      </c>
-      <c r="O542" t="s" s="2">
-        <v>1437</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -63637,7 +63634,7 @@
         <v>23</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>76</v>
@@ -63654,13 +63651,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -63686,13 +63683,13 @@
         <v>221</v>
       </c>
       <c r="M543" t="s" s="2">
+        <v>1438</v>
+      </c>
+      <c r="N543" t="s" s="2">
         <v>1439</v>
       </c>
-      <c r="N543" t="s" s="2">
+      <c r="O543" t="s" s="2">
         <v>1440</v>
-      </c>
-      <c r="O543" t="s" s="2">
-        <v>1441</v>
       </c>
       <c r="P543" s="2"/>
       <c r="Q543" t="s" s="2">
@@ -63721,11 +63718,11 @@
         <v>241</v>
       </c>
       <c r="Z543" t="s" s="2">
+        <v>1441</v>
+      </c>
+      <c r="AA543" t="s" s="2">
         <v>1442</v>
       </c>
-      <c r="AA543" t="s" s="2">
-        <v>1443</v>
-      </c>
       <c r="AB543" t="s" s="2">
         <v>23</v>
       </c>
@@ -63742,7 +63739,7 @@
         <v>23</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>76</v>
@@ -63759,13 +63756,13 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
@@ -63791,10 +63788,10 @@
         <v>86</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>1444</v>
+      </c>
+      <c r="N544" t="s" s="2">
         <v>1445</v>
-      </c>
-      <c r="N544" t="s" s="2">
-        <v>1446</v>
       </c>
       <c r="O544" s="2"/>
       <c r="P544" s="2"/>
@@ -63845,7 +63842,7 @@
         <v>23</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>85</v>
@@ -63862,13 +63859,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -63894,13 +63891,13 @@
         <v>486</v>
       </c>
       <c r="M545" t="s" s="2">
+        <v>1447</v>
+      </c>
+      <c r="N545" t="s" s="2">
         <v>1448</v>
       </c>
-      <c r="N545" t="s" s="2">
+      <c r="O545" t="s" s="2">
         <v>1449</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>1450</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -63950,7 +63947,7 @@
         <v>23</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>76</v>
@@ -63959,7 +63956,7 @@
         <v>77</v>
       </c>
       <c r="AJ545" t="s" s="2">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AK545" t="s" s="2">
         <v>112</v>
@@ -63967,13 +63964,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -64070,13 +64067,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -64175,13 +64172,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -64282,13 +64279,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -64314,10 +64311,10 @@
         <v>103</v>
       </c>
       <c r="M549" t="s" s="2">
+        <v>1454</v>
+      </c>
+      <c r="N549" t="s" s="2">
         <v>1455</v>
-      </c>
-      <c r="N549" t="s" s="2">
-        <v>1456</v>
       </c>
       <c r="O549" s="2"/>
       <c r="P549" s="2"/>
@@ -64368,7 +64365,7 @@
         <v>23</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>85</v>
@@ -64385,13 +64382,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -64417,13 +64414,13 @@
         <v>103</v>
       </c>
       <c r="M550" t="s" s="2">
+        <v>1457</v>
+      </c>
+      <c r="N550" t="s" s="2">
         <v>1458</v>
       </c>
-      <c r="N550" t="s" s="2">
+      <c r="O550" t="s" s="2">
         <v>1459</v>
-      </c>
-      <c r="O550" t="s" s="2">
-        <v>1460</v>
       </c>
       <c r="P550" s="2"/>
       <c r="Q550" t="s" s="2">
@@ -64452,11 +64449,11 @@
         <v>109</v>
       </c>
       <c r="Z550" t="s" s="2">
+        <v>1460</v>
+      </c>
+      <c r="AA550" t="s" s="2">
         <v>1461</v>
       </c>
-      <c r="AA550" t="s" s="2">
-        <v>1462</v>
-      </c>
       <c r="AB550" t="s" s="2">
         <v>23</v>
       </c>
@@ -64473,7 +64470,7 @@
         <v>23</v>
       </c>
       <c r="AG550" t="s" s="2">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AH550" t="s" s="2">
         <v>85</v>
@@ -64490,13 +64487,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -64522,13 +64519,13 @@
         <v>86</v>
       </c>
       <c r="M551" t="s" s="2">
+        <v>1463</v>
+      </c>
+      <c r="N551" t="s" s="2">
         <v>1464</v>
       </c>
-      <c r="N551" t="s" s="2">
+      <c r="O551" t="s" s="2">
         <v>1465</v>
-      </c>
-      <c r="O551" t="s" s="2">
-        <v>1466</v>
       </c>
       <c r="P551" s="2"/>
       <c r="Q551" t="s" s="2">
@@ -64578,7 +64575,7 @@
         <v>23</v>
       </c>
       <c r="AG551" t="s" s="2">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AH551" t="s" s="2">
         <v>85</v>
@@ -64595,13 +64592,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -64624,16 +64621,16 @@
         <v>102</v>
       </c>
       <c r="L552" t="s" s="2">
+        <v>1467</v>
+      </c>
+      <c r="M552" t="s" s="2">
         <v>1468</v>
       </c>
-      <c r="M552" t="s" s="2">
+      <c r="N552" t="s" s="2">
         <v>1469</v>
       </c>
-      <c r="N552" t="s" s="2">
+      <c r="O552" t="s" s="2">
         <v>1470</v>
-      </c>
-      <c r="O552" t="s" s="2">
-        <v>1471</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -64683,7 +64680,7 @@
         <v>23</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>76</v>
@@ -64692,7 +64689,7 @@
         <v>77</v>
       </c>
       <c r="AJ552" t="s" s="2">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="AK552" t="s" s="2">
         <v>112</v>
@@ -64700,13 +64697,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -64732,13 +64729,13 @@
         <v>78</v>
       </c>
       <c r="M553" t="s" s="2">
+        <v>1473</v>
+      </c>
+      <c r="N553" t="s" s="2">
         <v>1474</v>
       </c>
-      <c r="N553" t="s" s="2">
+      <c r="O553" t="s" s="2">
         <v>1475</v>
-      </c>
-      <c r="O553" t="s" s="2">
-        <v>1476</v>
       </c>
       <c r="P553" s="2"/>
       <c r="Q553" t="s" s="2">
@@ -64788,7 +64785,7 @@
         <v>23</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>76</v>
@@ -64797,7 +64794,7 @@
         <v>77</v>
       </c>
       <c r="AJ553" t="s" s="2">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AK553" t="s" s="2">
         <v>112</v>
@@ -64805,13 +64802,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -64837,13 +64834,13 @@
         <v>486</v>
       </c>
       <c r="M554" t="s" s="2">
+        <v>1478</v>
+      </c>
+      <c r="N554" t="s" s="2">
         <v>1479</v>
       </c>
-      <c r="N554" t="s" s="2">
+      <c r="O554" t="s" s="2">
         <v>1480</v>
-      </c>
-      <c r="O554" t="s" s="2">
-        <v>1481</v>
       </c>
       <c r="P554" s="2"/>
       <c r="Q554" t="s" s="2">
@@ -64893,7 +64890,7 @@
         <v>23</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>76</v>
@@ -64910,13 +64907,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -65013,13 +65010,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -65118,13 +65115,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -65225,13 +65222,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -65257,13 +65254,13 @@
         <v>201</v>
       </c>
       <c r="M558" t="s" s="2">
+        <v>1485</v>
+      </c>
+      <c r="N558" t="s" s="2">
         <v>1486</v>
       </c>
-      <c r="N558" t="s" s="2">
+      <c r="O558" t="s" s="2">
         <v>1487</v>
-      </c>
-      <c r="O558" t="s" s="2">
-        <v>1488</v>
       </c>
       <c r="P558" s="2"/>
       <c r="Q558" t="s" s="2">
@@ -65313,7 +65310,7 @@
         <v>23</v>
       </c>
       <c r="AG558" t="s" s="2">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AH558" t="s" s="2">
         <v>76</v>
@@ -65330,13 +65327,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -65362,13 +65359,13 @@
         <v>841</v>
       </c>
       <c r="M559" t="s" s="2">
+        <v>1489</v>
+      </c>
+      <c r="N559" t="s" s="2">
         <v>1490</v>
       </c>
-      <c r="N559" t="s" s="2">
+      <c r="O559" t="s" s="2">
         <v>1491</v>
-      </c>
-      <c r="O559" t="s" s="2">
-        <v>1492</v>
       </c>
       <c r="P559" s="2"/>
       <c r="Q559" t="s" s="2">
@@ -65418,7 +65415,7 @@
         <v>23</v>
       </c>
       <c r="AG559" t="s" s="2">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AH559" t="s" s="2">
         <v>85</v>
@@ -65435,13 +65432,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -65464,16 +65461,16 @@
         <v>23</v>
       </c>
       <c r="L560" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M560" t="s" s="2">
+        <v>1493</v>
+      </c>
+      <c r="N560" t="s" s="2">
         <v>1494</v>
       </c>
-      <c r="N560" t="s" s="2">
+      <c r="O560" t="s" s="2">
         <v>1495</v>
-      </c>
-      <c r="O560" t="s" s="2">
-        <v>1496</v>
       </c>
       <c r="P560" s="2"/>
       <c r="Q560" t="s" s="2">
@@ -65523,7 +65520,7 @@
         <v>23</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>76</v>
@@ -65540,13 +65537,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -65569,23 +65566,23 @@
         <v>23</v>
       </c>
       <c r="L561" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M561" t="s" s="2">
+        <v>1497</v>
+      </c>
+      <c r="N561" t="s" s="2">
         <v>1498</v>
       </c>
-      <c r="N561" t="s" s="2">
+      <c r="O561" t="s" s="2">
         <v>1499</v>
-      </c>
-      <c r="O561" t="s" s="2">
-        <v>1500</v>
       </c>
       <c r="P561" s="2"/>
       <c r="Q561" t="s" s="2">
         <v>23</v>
       </c>
       <c r="R561" t="s" s="2">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S561" t="s" s="2">
         <v>23</v>
@@ -65630,7 +65627,7 @@
         <v>23</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>76</v>
@@ -65647,13 +65644,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -65679,13 +65676,13 @@
         <v>486</v>
       </c>
       <c r="M562" t="s" s="2">
+        <v>1502</v>
+      </c>
+      <c r="N562" t="s" s="2">
         <v>1503</v>
       </c>
-      <c r="N562" t="s" s="2">
+      <c r="O562" t="s" s="2">
         <v>1504</v>
-      </c>
-      <c r="O562" t="s" s="2">
-        <v>1505</v>
       </c>
       <c r="P562" s="2"/>
       <c r="Q562" t="s" s="2">
@@ -65735,7 +65732,7 @@
         <v>23</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>76</v>
@@ -65752,13 +65749,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -65855,13 +65852,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -65960,13 +65957,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -66067,13 +66064,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -66099,13 +66096,13 @@
         <v>86</v>
       </c>
       <c r="M566" t="s" s="2">
+        <v>1509</v>
+      </c>
+      <c r="N566" t="s" s="2">
         <v>1510</v>
       </c>
-      <c r="N566" t="s" s="2">
+      <c r="O566" t="s" s="2">
         <v>1511</v>
-      </c>
-      <c r="O566" t="s" s="2">
-        <v>1512</v>
       </c>
       <c r="P566" s="2"/>
       <c r="Q566" t="s" s="2">
@@ -66155,7 +66152,7 @@
         <v>23</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>85</v>
@@ -66172,13 +66169,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -66201,13 +66198,13 @@
         <v>23</v>
       </c>
       <c r="L567" t="s" s="2">
+        <v>1513</v>
+      </c>
+      <c r="M567" t="s" s="2">
         <v>1514</v>
       </c>
-      <c r="M567" t="s" s="2">
+      <c r="N567" t="s" s="2">
         <v>1515</v>
-      </c>
-      <c r="N567" t="s" s="2">
-        <v>1516</v>
       </c>
       <c r="O567" s="2"/>
       <c r="P567" s="2"/>
@@ -66258,7 +66255,7 @@
         <v>23</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>76</v>
@@ -66275,13 +66272,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -66307,10 +66304,10 @@
         <v>486</v>
       </c>
       <c r="M568" t="s" s="2">
+        <v>1517</v>
+      </c>
+      <c r="N568" t="s" s="2">
         <v>1518</v>
-      </c>
-      <c r="N568" t="s" s="2">
-        <v>1519</v>
       </c>
       <c r="O568" s="2"/>
       <c r="P568" s="2"/>
@@ -66361,7 +66358,7 @@
         <v>23</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>76</v>
@@ -66373,18 +66370,18 @@
         <v>23</v>
       </c>
       <c r="AK568" t="s" s="2">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -66481,13 +66478,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -66582,16 +66579,16 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D571" t="s" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E571" t="s" s="2">
         <v>23</v>
@@ -66613,13 +66610,13 @@
         <v>23</v>
       </c>
       <c r="L571" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="M571" t="s" s="2">
         <v>1398</v>
       </c>
-      <c r="M571" t="s" s="2">
+      <c r="N571" t="s" s="2">
         <v>1399</v>
-      </c>
-      <c r="N571" t="s" s="2">
-        <v>1400</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
@@ -66687,13 +66684,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -66794,13 +66791,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -66826,10 +66823,10 @@
         <v>201</v>
       </c>
       <c r="M573" t="s" s="2">
+        <v>1525</v>
+      </c>
+      <c r="N573" t="s" s="2">
         <v>1526</v>
-      </c>
-      <c r="N573" t="s" s="2">
-        <v>1527</v>
       </c>
       <c r="O573" s="2"/>
       <c r="P573" s="2"/>
@@ -66880,7 +66877,7 @@
         <v>23</v>
       </c>
       <c r="AG573" t="s" s="2">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="AH573" t="s" s="2">
         <v>76</v>
@@ -66897,13 +66894,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -66929,20 +66926,20 @@
         <v>447</v>
       </c>
       <c r="M574" t="s" s="2">
+        <v>1528</v>
+      </c>
+      <c r="N574" t="s" s="2">
         <v>1529</v>
       </c>
-      <c r="N574" t="s" s="2">
+      <c r="O574" t="s" s="2">
         <v>1530</v>
-      </c>
-      <c r="O574" t="s" s="2">
-        <v>1531</v>
       </c>
       <c r="P574" s="2"/>
       <c r="Q574" t="s" s="2">
         <v>23</v>
       </c>
       <c r="R574" t="s" s="2">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="S574" t="s" s="2">
         <v>23</v>
@@ -66987,7 +66984,7 @@
         <v>23</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>76</v>
@@ -67004,13 +67001,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -67036,13 +67033,13 @@
         <v>447</v>
       </c>
       <c r="M575" t="s" s="2">
+        <v>1533</v>
+      </c>
+      <c r="N575" t="s" s="2">
         <v>1534</v>
       </c>
-      <c r="N575" t="s" s="2">
+      <c r="O575" t="s" s="2">
         <v>1535</v>
-      </c>
-      <c r="O575" t="s" s="2">
-        <v>1536</v>
       </c>
       <c r="P575" s="2"/>
       <c r="Q575" t="s" s="2">
@@ -67092,7 +67089,7 @@
         <v>23</v>
       </c>
       <c r="AG575" t="s" s="2">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="AH575" t="s" s="2">
         <v>76</v>
@@ -67109,13 +67106,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -67141,13 +67138,13 @@
         <v>86</v>
       </c>
       <c r="M576" t="s" s="2">
+        <v>1537</v>
+      </c>
+      <c r="N576" t="s" s="2">
         <v>1538</v>
       </c>
-      <c r="N576" t="s" s="2">
+      <c r="O576" t="s" s="2">
         <v>1539</v>
-      </c>
-      <c r="O576" t="s" s="2">
-        <v>1540</v>
       </c>
       <c r="P576" s="2"/>
       <c r="Q576" t="s" s="2">
@@ -67197,7 +67194,7 @@
         <v>23</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>76</v>
@@ -67214,13 +67211,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -67246,10 +67243,10 @@
         <v>103</v>
       </c>
       <c r="M577" t="s" s="2">
+        <v>1541</v>
+      </c>
+      <c r="N577" t="s" s="2">
         <v>1542</v>
-      </c>
-      <c r="N577" t="s" s="2">
-        <v>1543</v>
       </c>
       <c r="O577" s="2"/>
       <c r="P577" s="2"/>
@@ -67300,7 +67297,7 @@
         <v>23</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>76</v>
@@ -67309,7 +67306,7 @@
         <v>85</v>
       </c>
       <c r="AJ577" t="s" s="2">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="AK577" t="s" s="2">
         <v>112</v>
@@ -67317,13 +67314,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -67349,10 +67346,10 @@
         <v>86</v>
       </c>
       <c r="M578" t="s" s="2">
+        <v>1545</v>
+      </c>
+      <c r="N578" t="s" s="2">
         <v>1546</v>
-      </c>
-      <c r="N578" t="s" s="2">
-        <v>1547</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -67403,7 +67400,7 @@
         <v>23</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>76</v>
@@ -67412,7 +67409,7 @@
         <v>85</v>
       </c>
       <c r="AJ578" t="s" s="2">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="AK578" t="s" s="2">
         <v>112</v>
@@ -67420,13 +67417,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -67452,13 +67449,13 @@
         <v>78</v>
       </c>
       <c r="M579" t="s" s="2">
+        <v>1548</v>
+      </c>
+      <c r="N579" t="s" s="2">
         <v>1549</v>
       </c>
-      <c r="N579" t="s" s="2">
+      <c r="O579" t="s" s="2">
         <v>1550</v>
-      </c>
-      <c r="O579" t="s" s="2">
-        <v>1551</v>
       </c>
       <c r="P579" s="2"/>
       <c r="Q579" t="s" s="2">
@@ -67508,7 +67505,7 @@
         <v>23</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>76</v>
@@ -67525,13 +67522,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -67557,13 +67554,13 @@
         <v>78</v>
       </c>
       <c r="M580" t="s" s="2">
+        <v>1552</v>
+      </c>
+      <c r="N580" t="s" s="2">
         <v>1553</v>
       </c>
-      <c r="N580" t="s" s="2">
+      <c r="O580" t="s" s="2">
         <v>1554</v>
-      </c>
-      <c r="O580" t="s" s="2">
-        <v>1555</v>
       </c>
       <c r="P580" s="2"/>
       <c r="Q580" t="s" s="2">
@@ -67613,7 +67610,7 @@
         <v>23</v>
       </c>
       <c r="AG580" t="s" s="2">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="AH580" t="s" s="2">
         <v>76</v>
